--- a/Code/Results/Cases/Case_0_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_167/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1072776820944767</v>
+        <v>0.1710253105893287</v>
       </c>
       <c r="D2">
-        <v>0.08026927845497056</v>
+        <v>0.1249055367452456</v>
       </c>
       <c r="E2">
-        <v>0.05615571256248053</v>
+        <v>0.135974826705981</v>
       </c>
       <c r="F2">
-        <v>0.8665325374090429</v>
+        <v>1.901870967445312</v>
       </c>
       <c r="G2">
-        <v>0.0008166661599619603</v>
+        <v>0.002505621797156709</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6093849663361581</v>
+        <v>1.340883869616349</v>
       </c>
       <c r="J2">
-        <v>0.06208451196324916</v>
+        <v>0.1798759958227016</v>
       </c>
       <c r="K2">
-        <v>2.587628846363003</v>
+        <v>1.292249610345806</v>
       </c>
       <c r="L2">
-        <v>0.06743258054874701</v>
+        <v>0.1937768954559367</v>
       </c>
       <c r="M2">
-        <v>0.5728098536064294</v>
+        <v>0.4476476930700457</v>
       </c>
       <c r="N2">
-        <v>0.9796199690633358</v>
+        <v>1.638662744124019</v>
       </c>
       <c r="O2">
-        <v>2.198442944195904</v>
+        <v>4.99407545427303</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09836804457847848</v>
+        <v>0.1693807721009932</v>
       </c>
       <c r="D3">
-        <v>0.07312163606201949</v>
+        <v>0.1233959450520814</v>
       </c>
       <c r="E3">
-        <v>0.05428705651377008</v>
+        <v>0.136137818715687</v>
       </c>
       <c r="F3">
-        <v>0.8400224842183874</v>
+        <v>1.908938088328789</v>
       </c>
       <c r="G3">
-        <v>0.0008208034889035729</v>
+        <v>0.002508442882714232</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5914270815985816</v>
+        <v>1.346195998359519</v>
       </c>
       <c r="J3">
-        <v>0.06264211448836221</v>
+        <v>0.1809549444737062</v>
       </c>
       <c r="K3">
-        <v>2.252502755491491</v>
+        <v>1.19432589802895</v>
       </c>
       <c r="L3">
-        <v>0.06749354215831005</v>
+        <v>0.1946971206182013</v>
       </c>
       <c r="M3">
-        <v>0.502952293838554</v>
+        <v>0.4287578226186852</v>
       </c>
       <c r="N3">
-        <v>0.9966473567457896</v>
+        <v>1.648283506349223</v>
       </c>
       <c r="O3">
-        <v>2.150142137287077</v>
+        <v>5.020225116108264</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09297737212499158</v>
+        <v>0.1684304603477642</v>
       </c>
       <c r="D4">
-        <v>0.06877728716731468</v>
+        <v>0.122505840444731</v>
       </c>
       <c r="E4">
-        <v>0.05319518474065887</v>
+        <v>0.1362800952807675</v>
       </c>
       <c r="F4">
-        <v>0.8252820295811176</v>
+        <v>1.914188079044067</v>
       </c>
       <c r="G4">
-        <v>0.0008234311146140261</v>
+        <v>0.002510268882654455</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5815070603994954</v>
+        <v>1.350107772849881</v>
       </c>
       <c r="J4">
-        <v>0.06306053530656541</v>
+        <v>0.1816726150959358</v>
       </c>
       <c r="K4">
-        <v>2.04708175411406</v>
+        <v>1.1343845162354</v>
       </c>
       <c r="L4">
-        <v>0.06760086219592054</v>
+        <v>0.1953157865117241</v>
       </c>
       <c r="M4">
-        <v>0.4602395976264901</v>
+        <v>0.4172813853441966</v>
       </c>
       <c r="N4">
-        <v>1.008144136603221</v>
+        <v>1.65473330055768</v>
       </c>
       <c r="O4">
-        <v>2.124821919057865</v>
+        <v>5.038773278176023</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09079965277045687</v>
+        <v>0.1680582148325556</v>
       </c>
       <c r="D5">
-        <v>0.06701744990731839</v>
+        <v>0.1221524244316541</v>
       </c>
       <c r="E5">
-        <v>0.05276373623585862</v>
+        <v>0.136348712771909</v>
       </c>
       <c r="F5">
-        <v>0.8196443862476031</v>
+        <v>1.916556645055138</v>
       </c>
       <c r="G5">
-        <v>0.0008245242037799305</v>
+        <v>0.00251103665955744</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5777302614373383</v>
+        <v>1.351865410487818</v>
       </c>
       <c r="J5">
-        <v>0.06324968639628814</v>
+        <v>0.1819789692126577</v>
       </c>
       <c r="K5">
-        <v>1.96343407366723</v>
+        <v>1.110006011299618</v>
       </c>
       <c r="L5">
-        <v>0.06766176476662977</v>
+        <v>0.1955814121080408</v>
       </c>
       <c r="M5">
-        <v>0.4428732872984256</v>
+        <v>0.4126357227814665</v>
       </c>
       <c r="N5">
-        <v>1.013084316900347</v>
+        <v>1.657498307186451</v>
       </c>
       <c r="O5">
-        <v>2.115545323930576</v>
+        <v>5.04695861395831</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09043916305306254</v>
+        <v>0.1679973125492324</v>
       </c>
       <c r="D6">
-        <v>0.06672584798077708</v>
+        <v>0.1220943038958495</v>
       </c>
       <c r="E6">
-        <v>0.05269289689509904</v>
+        <v>0.1363607500079222</v>
       </c>
       <c r="F6">
-        <v>0.818730070949556</v>
+        <v>1.916963787904308</v>
       </c>
       <c r="G6">
-        <v>0.0008247070680980849</v>
+        <v>0.002511165579843729</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5771188205174127</v>
+        <v>1.352167145831771</v>
       </c>
       <c r="J6">
-        <v>0.06328220699612608</v>
+        <v>0.1820306790179167</v>
       </c>
       <c r="K6">
-        <v>1.949547563379639</v>
+        <v>1.105960936481438</v>
       </c>
       <c r="L6">
-        <v>0.06767290304744478</v>
+        <v>0.1956263359983552</v>
       </c>
       <c r="M6">
-        <v>0.4399918440330808</v>
+        <v>0.4118662028032247</v>
       </c>
       <c r="N6">
-        <v>1.013919847350678</v>
+        <v>1.657965695110008</v>
       </c>
       <c r="O6">
-        <v>2.114066477213129</v>
+        <v>5.048355644475009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09294792698048582</v>
+        <v>0.1684253792326587</v>
       </c>
       <c r="D7">
-        <v>0.06875351159473553</v>
+        <v>0.1225010363860264</v>
       </c>
       <c r="E7">
-        <v>0.05318931200764254</v>
+        <v>0.1362809775682869</v>
       </c>
       <c r="F7">
-        <v>0.8252045256050877</v>
+        <v>1.914219094345135</v>
       </c>
       <c r="G7">
-        <v>0.0008234457655427407</v>
+        <v>0.002510279141196926</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.581455065444338</v>
+        <v>1.350130814616918</v>
       </c>
       <c r="J7">
-        <v>0.06306301140753057</v>
+        <v>0.1816766903989073</v>
       </c>
       <c r="K7">
-        <v>2.045953428141274</v>
+        <v>1.134055542093392</v>
       </c>
       <c r="L7">
-        <v>0.06760161455518343</v>
+        <v>0.1953193140791143</v>
       </c>
       <c r="M7">
-        <v>0.4600052371815977</v>
+        <v>0.4172186059519447</v>
       </c>
       <c r="N7">
-        <v>1.008209737283288</v>
+        <v>1.654770036765981</v>
       </c>
       <c r="O7">
-        <v>2.124692657156061</v>
+        <v>5.038881130377547</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1041884001211315</v>
+        <v>0.1704459760801171</v>
       </c>
       <c r="D8">
-        <v>0.07779517950001491</v>
+        <v>0.1243774273938598</v>
       </c>
       <c r="E8">
-        <v>0.05549960121484254</v>
+        <v>0.1360222842269447</v>
       </c>
       <c r="F8">
-        <v>0.8570622627736455</v>
+        <v>1.904118763811724</v>
       </c>
       <c r="G8">
-        <v>0.0008180748164480922</v>
+        <v>0.002506575072666332</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6029557987177938</v>
+        <v>1.342580610214078</v>
       </c>
       <c r="J8">
-        <v>0.06226069162563874</v>
+        <v>0.1802365737129534</v>
       </c>
       <c r="K8">
-        <v>2.471989932706578</v>
+        <v>1.25844832641485</v>
       </c>
       <c r="L8">
-        <v>0.06743884444433945</v>
+        <v>0.1940830702650906</v>
       </c>
       <c r="M8">
-        <v>0.5486819418264659</v>
+        <v>0.4411093714341305</v>
       </c>
       <c r="N8">
-        <v>0.9852705350519955</v>
+        <v>1.641867495176115</v>
       </c>
       <c r="O8">
-        <v>2.180858569944803</v>
+        <v>5.002574684002269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1269165908853012</v>
+        <v>0.1748773874356857</v>
       </c>
       <c r="D9">
-        <v>0.09590858139113578</v>
+        <v>0.1283466849387764</v>
       </c>
       <c r="E9">
-        <v>0.06049230478935108</v>
+        <v>0.135848691187439</v>
       </c>
       <c r="F9">
-        <v>0.9325523360847967</v>
+        <v>1.891533780485389</v>
       </c>
       <c r="G9">
-        <v>0.0008082177865201529</v>
+        <v>0.002500052813822208</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6544912830444432</v>
+        <v>1.332930253367493</v>
       </c>
       <c r="J9">
-        <v>0.06131369546936227</v>
+        <v>0.1778495940433693</v>
       </c>
       <c r="K9">
-        <v>3.311423708427071</v>
+        <v>1.503777573720299</v>
       </c>
       <c r="L9">
-        <v>0.06769352457556366</v>
+        <v>0.1920833564991717</v>
       </c>
       <c r="M9">
-        <v>0.7242951183175492</v>
+        <v>0.4889124489919396</v>
       </c>
       <c r="N9">
-        <v>0.9488803509570189</v>
+        <v>1.620861685957927</v>
       </c>
       <c r="O9">
-        <v>2.32774182958056</v>
+        <v>4.951149087454951</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1441109454896292</v>
+        <v>0.1784160585480805</v>
       </c>
       <c r="D10">
-        <v>0.1094968661363112</v>
+        <v>0.1314368428752601</v>
       </c>
       <c r="E10">
-        <v>0.06447488069206386</v>
+        <v>0.1359231915007122</v>
       </c>
       <c r="F10">
-        <v>0.9971665826948737</v>
+        <v>1.88668589378004</v>
       </c>
       <c r="G10">
-        <v>0.000801362186904041</v>
+        <v>0.002495708429966687</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6989478265378466</v>
+        <v>1.328980828394378</v>
       </c>
       <c r="J10">
-        <v>0.06103348128281993</v>
+        <v>0.176361214934186</v>
       </c>
       <c r="K10">
-        <v>3.93245285370125</v>
+        <v>1.684801206155953</v>
       </c>
       <c r="L10">
-        <v>0.06825898284305509</v>
+        <v>0.1908715533690852</v>
       </c>
       <c r="M10">
-        <v>0.8548075259076953</v>
+        <v>0.5245984667571335</v>
       </c>
       <c r="N10">
-        <v>0.9278646428112012</v>
+        <v>1.608035705056878</v>
       </c>
       <c r="O10">
-        <v>2.461499265017494</v>
+        <v>4.925420142275868</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.152059363475999</v>
+        <v>0.1800867157179198</v>
       </c>
       <c r="D11">
-        <v>0.115750671739832</v>
+        <v>0.1328798719842155</v>
       </c>
       <c r="E11">
-        <v>0.06636268216839625</v>
+        <v>0.1360006675226799</v>
       </c>
       <c r="F11">
-        <v>1.028837359196203</v>
+        <v>1.885434768472052</v>
       </c>
       <c r="G11">
-        <v>0.0007983213445084487</v>
+        <v>0.002493828283045103</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7208129486615178</v>
+        <v>1.327865731415322</v>
       </c>
       <c r="J11">
-        <v>0.06100422392825777</v>
+        <v>0.1757414927627643</v>
       </c>
       <c r="K11">
-        <v>4.216361614487653</v>
+        <v>1.767309174221282</v>
       </c>
       <c r="L11">
-        <v>0.06860512721481626</v>
+        <v>0.1903758619921661</v>
       </c>
       <c r="M11">
-        <v>0.9146109891621848</v>
+        <v>0.5409524932380876</v>
       </c>
       <c r="N11">
-        <v>0.9196607433982251</v>
+        <v>1.602764510772218</v>
       </c>
       <c r="O11">
-        <v>2.528778977744224</v>
+        <v>4.916333125652102</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1550890536596086</v>
+        <v>0.1807280461847824</v>
       </c>
       <c r="D12">
-        <v>0.1181302195375764</v>
+        <v>0.133431620589036</v>
       </c>
       <c r="E12">
-        <v>0.06708917084552013</v>
+        <v>0.1360362475395149</v>
       </c>
       <c r="F12">
-        <v>1.041183534506999</v>
+        <v>1.885098121193067</v>
       </c>
       <c r="G12">
-        <v>0.0007971805275053548</v>
+        <v>0.002493130072638895</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7293474275846492</v>
+        <v>1.327541423106922</v>
       </c>
       <c r="J12">
-        <v>0.061007983159449</v>
+        <v>0.1755150485422341</v>
       </c>
       <c r="K12">
-        <v>4.3241114112584</v>
+        <v>1.798574155217466</v>
       </c>
       <c r="L12">
-        <v>0.0687495900270001</v>
+        <v>0.1901961224050979</v>
       </c>
       <c r="M12">
-        <v>0.9373285677614547</v>
+        <v>0.5471622840003576</v>
       </c>
       <c r="N12">
-        <v>0.9167594939630987</v>
+        <v>1.600849278343787</v>
       </c>
       <c r="O12">
-        <v>2.55525433669095</v>
+        <v>4.91326844432416</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1544356487125498</v>
+        <v>0.1805895388405219</v>
       </c>
       <c r="D13">
-        <v>0.1176172198761094</v>
+        <v>0.133312556660897</v>
       </c>
       <c r="E13">
-        <v>0.06693218050112648</v>
+        <v>0.1360283075659154</v>
       </c>
       <c r="F13">
-        <v>1.038508431067584</v>
+        <v>1.885164526835382</v>
       </c>
       <c r="G13">
-        <v>0.0007974257560328726</v>
+        <v>0.002493279833610582</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7274977403411427</v>
+        <v>1.327606912880647</v>
       </c>
       <c r="J13">
-        <v>0.06100650168698962</v>
+        <v>0.1755634515228621</v>
       </c>
       <c r="K13">
-        <v>4.300894257880088</v>
+        <v>1.791839778496353</v>
       </c>
       <c r="L13">
-        <v>0.06871787207374425</v>
+        <v>0.1902344785128527</v>
       </c>
       <c r="M13">
-        <v>0.9324326072527924</v>
+        <v>0.5458241505711072</v>
       </c>
       <c r="N13">
-        <v>0.9173750226389075</v>
+        <v>1.601258164429865</v>
       </c>
       <c r="O13">
-        <v>2.549506791172007</v>
+        <v>4.91391173854376</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1523082116567309</v>
+        <v>0.1801393046143858</v>
       </c>
       <c r="D14">
-        <v>0.1159462050507898</v>
+        <v>0.1329251586946327</v>
       </c>
       <c r="E14">
-        <v>0.06642221393220638</v>
+        <v>0.1360034697711114</v>
       </c>
       <c r="F14">
-        <v>1.029845855698085</v>
+        <v>1.885404324568896</v>
       </c>
       <c r="G14">
-        <v>0.0007982272776923615</v>
+        <v>0.002493770565439202</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7215098711598387</v>
+        <v>1.327837087483232</v>
       </c>
       <c r="J14">
-        <v>0.06100423154788359</v>
+        <v>0.1757226981856235</v>
       </c>
       <c r="K14">
-        <v>4.225221219642833</v>
+        <v>1.76988095304506</v>
       </c>
       <c r="L14">
-        <v>0.06861674041443777</v>
+        <v>0.190360915143696</v>
       </c>
       <c r="M14">
-        <v>0.9164784944332425</v>
+        <v>0.5414630406463559</v>
       </c>
       <c r="N14">
-        <v>0.9194178776854898</v>
+        <v>1.602605323918667</v>
       </c>
       <c r="O14">
-        <v>2.53093668383795</v>
+        <v>4.916073449232016</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1510077222046675</v>
+        <v>0.1798646526747945</v>
       </c>
       <c r="D15">
-        <v>0.1149241700194921</v>
+        <v>0.1326885553476416</v>
       </c>
       <c r="E15">
-        <v>0.06611137866611827</v>
+        <v>0.1359890679655749</v>
       </c>
       <c r="F15">
-        <v>1.0245865592141</v>
+        <v>1.885569062987727</v>
       </c>
       <c r="G15">
-        <v>0.0007987196086918714</v>
+        <v>0.002494072942812494</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7178758623121837</v>
+        <v>1.327990831290663</v>
       </c>
       <c r="J15">
-        <v>0.06100479547760429</v>
+        <v>0.1758213128382806</v>
       </c>
       <c r="K15">
-        <v>4.178901710193031</v>
+        <v>1.756433216896596</v>
       </c>
       <c r="L15">
-        <v>0.0685565560170005</v>
+        <v>0.1904393982451609</v>
       </c>
       <c r="M15">
-        <v>0.906715707223583</v>
+        <v>0.5387939201798204</v>
       </c>
       <c r="N15">
-        <v>0.920696252698022</v>
+        <v>1.603441022894074</v>
       </c>
       <c r="O15">
-        <v>2.519694178485565</v>
+        <v>4.917446575231111</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1435941789420951</v>
+        <v>0.1783080967632173</v>
       </c>
       <c r="D16">
-        <v>0.109089702521473</v>
+        <v>0.1313432830688441</v>
       </c>
       <c r="E16">
-        <v>0.06435309658107258</v>
+        <v>0.1359190030863218</v>
       </c>
       <c r="F16">
-        <v>0.9951448027957781</v>
+        <v>1.886786851364448</v>
       </c>
       <c r="G16">
-        <v>0.0008015624363935027</v>
+        <v>0.002495833230997356</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6975534809869117</v>
+        <v>1.329067412477393</v>
       </c>
       <c r="J16">
-        <v>0.0610374296835019</v>
+        <v>0.1764028679075551</v>
       </c>
       <c r="K16">
-        <v>3.913930128802122</v>
+        <v>1.679412160008042</v>
       </c>
       <c r="L16">
-        <v>0.06823820103801737</v>
+        <v>0.1909050641675023</v>
       </c>
       <c r="M16">
-        <v>0.8509086966870925</v>
+        <v>0.5235320770454877</v>
       </c>
       <c r="N16">
-        <v>0.9284289480701773</v>
+        <v>1.608391513161592</v>
       </c>
       <c r="O16">
-        <v>2.457237943039814</v>
+        <v>4.926066667092186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1390797371081618</v>
+        <v>0.177368748990844</v>
       </c>
       <c r="D17">
-        <v>0.1055296524352087</v>
+        <v>0.1305275136927264</v>
       </c>
       <c r="E17">
-        <v>0.0632944066380432</v>
+        <v>0.1358871653028686</v>
       </c>
       <c r="F17">
-        <v>0.9776842389981937</v>
+        <v>1.887778257724705</v>
       </c>
       <c r="G17">
-        <v>0.0008033259977915025</v>
+        <v>0.00249693768784138</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6855196265849699</v>
+        <v>1.329902379719329</v>
       </c>
       <c r="J17">
-        <v>0.0610830985201396</v>
+        <v>0.1767743104144444</v>
       </c>
       <c r="K17">
-        <v>3.751763508577369</v>
+        <v>1.632201698308791</v>
       </c>
       <c r="L17">
-        <v>0.06806608797444369</v>
+        <v>0.1912049506592872</v>
       </c>
       <c r="M17">
-        <v>0.8167899756214609</v>
+        <v>0.5141999375905186</v>
       </c>
       <c r="N17">
-        <v>0.9335272292566756</v>
+        <v>1.611572663339707</v>
       </c>
       <c r="O17">
-        <v>2.420620982983365</v>
+        <v>4.932025160670236</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1364949661608961</v>
+        <v>0.1768341970702778</v>
       </c>
       <c r="D18">
-        <v>0.1034887619737574</v>
+        <v>0.1300618191676719</v>
       </c>
       <c r="E18">
-        <v>0.06269259677387495</v>
+        <v>0.1358729570713813</v>
       </c>
       <c r="F18">
-        <v>0.967854109635752</v>
+        <v>1.888438307665567</v>
       </c>
       <c r="G18">
-        <v>0.0008043477069405849</v>
+        <v>0.002497581994798659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6787514029012058</v>
+        <v>1.330446781095908</v>
       </c>
       <c r="J18">
-        <v>0.06111856474608501</v>
+        <v>0.1769933531988706</v>
       </c>
       <c r="K18">
-        <v>3.658618805055937</v>
+        <v>1.605062608213302</v>
       </c>
       <c r="L18">
-        <v>0.06797542396240885</v>
+        <v>0.1913826686892435</v>
       </c>
       <c r="M18">
-        <v>0.7972059347444755</v>
+        <v>0.508843683982775</v>
       </c>
       <c r="N18">
-        <v>0.9365866216275975</v>
+        <v>1.613455416872888</v>
       </c>
       <c r="O18">
-        <v>2.400160699023331</v>
+        <v>4.935698671290169</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1356217899945023</v>
+        <v>0.1766541942294566</v>
       </c>
       <c r="D19">
-        <v>0.1027988839879512</v>
+        <v>0.1299047484120663</v>
       </c>
       <c r="E19">
-        <v>0.06249003742718529</v>
+        <v>0.1358688520712477</v>
       </c>
       <c r="F19">
-        <v>0.9645615796918321</v>
+        <v>1.888677218412951</v>
       </c>
       <c r="G19">
-        <v>0.0008046949182312214</v>
+        <v>0.00249780170268739</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.676485588434673</v>
+        <v>1.33064212534498</v>
       </c>
       <c r="J19">
-        <v>0.06113213187074962</v>
+        <v>0.1770684450622646</v>
       </c>
       <c r="K19">
-        <v>3.627102684378599</v>
+        <v>1.595876433832018</v>
       </c>
       <c r="L19">
-        <v>0.06794613989230314</v>
+        <v>0.1914437401070153</v>
       </c>
       <c r="M19">
-        <v>0.7905817445379313</v>
+        <v>0.5070321100740003</v>
       </c>
       <c r="N19">
-        <v>0.9376439865556918</v>
+        <v>1.614101999616224</v>
       </c>
       <c r="O19">
-        <v>2.393334249486799</v>
+        <v>4.936984767781951</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1395590730130323</v>
+        <v>0.1774681509975125</v>
       </c>
       <c r="D20">
-        <v>0.1059079199206394</v>
+        <v>0.1306139904316126</v>
       </c>
       <c r="E20">
-        <v>0.0634063642902305</v>
+        <v>0.1358901299273718</v>
       </c>
       <c r="F20">
-        <v>0.9795207494401836</v>
+        <v>1.887663425497209</v>
       </c>
       <c r="G20">
-        <v>0.0008031375059777746</v>
+        <v>0.00249681918017599</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6867846513305835</v>
+        <v>1.32980685705099</v>
       </c>
       <c r="J20">
-        <v>0.06107727993337875</v>
+        <v>0.176734211075221</v>
       </c>
       <c r="K20">
-        <v>3.769012776559123</v>
+        <v>1.637225781723544</v>
       </c>
       <c r="L20">
-        <v>0.06808354327331401</v>
+        <v>0.1911724859754145</v>
       </c>
       <c r="M20">
-        <v>0.8204177532954517</v>
+        <v>0.5151921885244519</v>
       </c>
       <c r="N20">
-        <v>0.9329712920919349</v>
+        <v>1.611228536219187</v>
       </c>
       <c r="O20">
-        <v>2.42445622566305</v>
+        <v>4.931365373138021</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1529325409961189</v>
+        <v>0.1802713140506</v>
       </c>
       <c r="D21">
-        <v>0.1164367061726637</v>
+        <v>0.1330388033675263</v>
       </c>
       <c r="E21">
-        <v>0.06657168252485235</v>
+        <v>0.1360105960471536</v>
       </c>
       <c r="F21">
-        <v>1.03238046660833</v>
+        <v>1.885330169270304</v>
       </c>
       <c r="G21">
-        <v>0.000797991565566556</v>
+        <v>0.002493626052641529</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.723261588372516</v>
+        <v>1.327766821530098</v>
       </c>
       <c r="J21">
-        <v>0.06100448969000638</v>
+        <v>0.1756757003139988</v>
       </c>
       <c r="K21">
-        <v>4.247441397758507</v>
+        <v>1.776330237593129</v>
       </c>
       <c r="L21">
-        <v>0.06864607697774971</v>
+        <v>0.1903235615667782</v>
       </c>
       <c r="M21">
-        <v>0.9211625930196732</v>
+        <v>0.542743549682406</v>
       </c>
       <c r="N21">
-        <v>0.9188121813446628</v>
+        <v>1.602207437426813</v>
       </c>
       <c r="O21">
-        <v>2.536363482085221</v>
+        <v>4.915428287515283</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1617890847926873</v>
+        <v>0.1821539568700246</v>
       </c>
       <c r="D22">
-        <v>0.1233846263870078</v>
+        <v>0.1346544519412447</v>
       </c>
       <c r="E22">
-        <v>0.06870847362148425</v>
+        <v>0.1361256960153163</v>
       </c>
       <c r="F22">
-        <v>1.068998939922352</v>
+        <v>1.884604490897971</v>
       </c>
       <c r="G22">
-        <v>0.0007946904131202765</v>
+        <v>0.002491619336821728</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7485951406858931</v>
+        <v>1.327004473931439</v>
       </c>
       <c r="J22">
-        <v>0.06104377417842954</v>
+        <v>0.1750318724377671</v>
       </c>
       <c r="K22">
-        <v>4.561539485046637</v>
+        <v>1.867364581801041</v>
       </c>
       <c r="L22">
-        <v>0.06909205374374139</v>
+        <v>0.1898151737316596</v>
       </c>
       <c r="M22">
-        <v>0.987425521641569</v>
+        <v>0.5608481280852828</v>
       </c>
       <c r="N22">
-        <v>0.9107608737541568</v>
+        <v>1.596782837666922</v>
       </c>
       <c r="O22">
-        <v>2.61535606361744</v>
+        <v>4.907206291412109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1570509931913193</v>
+        <v>0.1811445463101222</v>
       </c>
       <c r="D23">
-        <v>0.1196699501581833</v>
+        <v>0.1337893426254766</v>
       </c>
       <c r="E23">
-        <v>0.06756156415926995</v>
+        <v>0.1360609458571851</v>
       </c>
       <c r="F23">
-        <v>1.049256469154273</v>
+        <v>1.884918697173561</v>
       </c>
       <c r="G23">
-        <v>0.0007964468008366605</v>
+        <v>0.002492683043444125</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7349309856740973</v>
+        <v>1.327359128073439</v>
       </c>
       <c r="J23">
-        <v>0.06101461056725554</v>
+        <v>0.1753711113454415</v>
       </c>
       <c r="K23">
-        <v>4.393756213838799</v>
+        <v>1.818767350863197</v>
       </c>
       <c r="L23">
-        <v>0.06884665169090454</v>
+        <v>0.1900822684853054</v>
       </c>
       <c r="M23">
-        <v>0.952018099786585</v>
+        <v>0.5511765297183473</v>
       </c>
       <c r="N23">
-        <v>0.9149443700677296</v>
+        <v>1.599634985382096</v>
       </c>
       <c r="O23">
-        <v>2.572635049395785</v>
+        <v>4.911393783879475</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1393423322224407</v>
+        <v>0.1774231942401912</v>
       </c>
       <c r="D24">
-        <v>0.1057368871030633</v>
+        <v>0.1305748840079843</v>
       </c>
       <c r="E24">
-        <v>0.06335572696527692</v>
+        <v>0.1358887768611545</v>
       </c>
       <c r="F24">
-        <v>0.9786898165490641</v>
+        <v>1.887715060554385</v>
       </c>
       <c r="G24">
-        <v>0.0008032226987174002</v>
+        <v>0.002496872728650524</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6862122671938664</v>
+        <v>1.329849842343663</v>
       </c>
       <c r="J24">
-        <v>0.06107988188096058</v>
+        <v>0.1767523228671202</v>
       </c>
       <c r="K24">
-        <v>3.761214114244183</v>
+        <v>1.634954384639059</v>
       </c>
       <c r="L24">
-        <v>0.06807562596834771</v>
+        <v>0.1911871467194892</v>
       </c>
       <c r="M24">
-        <v>0.8187775382993294</v>
+        <v>0.51474356406748</v>
       </c>
       <c r="N24">
-        <v>0.9332222323633275</v>
+        <v>1.611383948280583</v>
       </c>
       <c r="O24">
-        <v>2.422720476154637</v>
+        <v>4.931662890903453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1206868544805815</v>
+        <v>0.1736286731594845</v>
       </c>
       <c r="D25">
-        <v>0.0909627800212931</v>
+        <v>0.1272421589495636</v>
       </c>
       <c r="E25">
-        <v>0.05908891103948832</v>
+        <v>0.1358600720176124</v>
       </c>
       <c r="F25">
-        <v>0.9106157619297761</v>
+        <v>1.894165657787283</v>
       </c>
       <c r="G25">
-        <v>0.0008108146077593081</v>
+        <v>0.002501738348091969</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6394586996524012</v>
+        <v>1.334989228278971</v>
       </c>
       <c r="J25">
-        <v>0.06149947429424785</v>
+        <v>0.1784486590085699</v>
       </c>
       <c r="K25">
-        <v>3.083723650818399</v>
+        <v>1.437267425543098</v>
       </c>
       <c r="L25">
-        <v>0.06756035277141592</v>
+        <v>0.1925790291399174</v>
       </c>
       <c r="M25">
-        <v>0.6765593832608587</v>
+        <v>0.475880053976816</v>
       </c>
       <c r="N25">
-        <v>0.957757107852494</v>
+        <v>1.62608565517457</v>
       </c>
       <c r="O25">
-        <v>2.283730242077638</v>
+        <v>4.962944394620791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_167/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1710253105893287</v>
+        <v>0.1072776820945762</v>
       </c>
       <c r="D2">
-        <v>0.1249055367452456</v>
+        <v>0.08026927845497056</v>
       </c>
       <c r="E2">
-        <v>0.135974826705981</v>
+        <v>0.05615571256247698</v>
       </c>
       <c r="F2">
-        <v>1.901870967445312</v>
+        <v>0.8665325374090358</v>
       </c>
       <c r="G2">
-        <v>0.002505621797156709</v>
+        <v>0.0008166661599572544</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.340883869616349</v>
+        <v>0.609384966336151</v>
       </c>
       <c r="J2">
-        <v>0.1798759958227016</v>
+        <v>0.06208451196321363</v>
       </c>
       <c r="K2">
-        <v>1.292249610345806</v>
+        <v>2.58762884636306</v>
       </c>
       <c r="L2">
-        <v>0.1937768954559367</v>
+        <v>0.0674325805486653</v>
       </c>
       <c r="M2">
-        <v>0.4476476930700457</v>
+        <v>0.5728098536064294</v>
       </c>
       <c r="N2">
-        <v>1.638662744124019</v>
+        <v>0.979619969063279</v>
       </c>
       <c r="O2">
-        <v>4.99407545427303</v>
+        <v>2.198442944195904</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1693807721009932</v>
+        <v>0.09836804457867743</v>
       </c>
       <c r="D3">
-        <v>0.1233959450520814</v>
+        <v>0.07312163606182054</v>
       </c>
       <c r="E3">
-        <v>0.136137818715687</v>
+        <v>0.05428705651378429</v>
       </c>
       <c r="F3">
-        <v>1.908938088328789</v>
+        <v>0.8400224842183803</v>
       </c>
       <c r="G3">
-        <v>0.002508442882714232</v>
+        <v>0.0008208034889152146</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.346195998359519</v>
+        <v>0.5914270815985887</v>
       </c>
       <c r="J3">
-        <v>0.1809549444737062</v>
+        <v>0.06264211448832846</v>
       </c>
       <c r="K3">
-        <v>1.19432589802895</v>
+        <v>2.252502755491719</v>
       </c>
       <c r="L3">
-        <v>0.1946971206182013</v>
+        <v>0.06749354215835979</v>
       </c>
       <c r="M3">
-        <v>0.4287578226186852</v>
+        <v>0.5029522938385469</v>
       </c>
       <c r="N3">
-        <v>1.648283506349223</v>
+        <v>0.9966473567457825</v>
       </c>
       <c r="O3">
-        <v>5.020225116108264</v>
+        <v>2.15014213728719</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1684304603477642</v>
+        <v>0.09297737212490631</v>
       </c>
       <c r="D4">
-        <v>0.122505840444731</v>
+        <v>0.06877728716712994</v>
       </c>
       <c r="E4">
-        <v>0.1362800952807675</v>
+        <v>0.05319518474066598</v>
       </c>
       <c r="F4">
-        <v>1.914188079044067</v>
+        <v>0.8252820295810821</v>
       </c>
       <c r="G4">
-        <v>0.002510268882654455</v>
+        <v>0.0008234311146720907</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.350107772849881</v>
+        <v>0.5815070603995025</v>
       </c>
       <c r="J4">
-        <v>0.1816726150959358</v>
+        <v>0.06306053530672706</v>
       </c>
       <c r="K4">
-        <v>1.1343845162354</v>
+        <v>2.047081754114004</v>
       </c>
       <c r="L4">
-        <v>0.1953157865117241</v>
+        <v>0.06760086219587436</v>
       </c>
       <c r="M4">
-        <v>0.4172813853441966</v>
+        <v>0.4602395976265043</v>
       </c>
       <c r="N4">
-        <v>1.65473330055768</v>
+        <v>1.008144136603271</v>
       </c>
       <c r="O4">
-        <v>5.038773278176023</v>
+        <v>2.124821919057808</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1680582148325556</v>
+        <v>0.09079965277013002</v>
       </c>
       <c r="D5">
-        <v>0.1221524244316541</v>
+        <v>0.06701744990744629</v>
       </c>
       <c r="E5">
-        <v>0.136348712771909</v>
+        <v>0.05276373623587638</v>
       </c>
       <c r="F5">
-        <v>1.916556645055138</v>
+        <v>0.8196443862476315</v>
       </c>
       <c r="G5">
-        <v>0.00251103665955744</v>
+        <v>0.0008245242037582587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.351865410487818</v>
+        <v>0.5777302614373454</v>
       </c>
       <c r="J5">
-        <v>0.1819789692126577</v>
+        <v>0.0632496863962988</v>
       </c>
       <c r="K5">
-        <v>1.110006011299618</v>
+        <v>1.963434073667287</v>
       </c>
       <c r="L5">
-        <v>0.1955814121080408</v>
+        <v>0.0676617647666653</v>
       </c>
       <c r="M5">
-        <v>0.4126357227814665</v>
+        <v>0.4428732872984469</v>
       </c>
       <c r="N5">
-        <v>1.657498307186451</v>
+        <v>1.013084316900361</v>
       </c>
       <c r="O5">
-        <v>5.04695861395831</v>
+        <v>2.115545323930689</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1679973125492324</v>
+        <v>0.09043916305305544</v>
       </c>
       <c r="D6">
-        <v>0.1220943038958495</v>
+        <v>0.06672584798077708</v>
       </c>
       <c r="E6">
-        <v>0.1363607500079222</v>
+        <v>0.05269289689509549</v>
       </c>
       <c r="F6">
-        <v>1.916963787904308</v>
+        <v>0.818730070949556</v>
       </c>
       <c r="G6">
-        <v>0.002511165579843729</v>
+        <v>0.000824707068134023</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.352167145831771</v>
+        <v>0.5771188205174127</v>
       </c>
       <c r="J6">
-        <v>0.1820306790179167</v>
+        <v>0.06328220699608877</v>
       </c>
       <c r="K6">
-        <v>1.105960936481438</v>
+        <v>1.949547563379582</v>
       </c>
       <c r="L6">
-        <v>0.1956263359983552</v>
+        <v>0.06767290304731333</v>
       </c>
       <c r="M6">
-        <v>0.4118662028032247</v>
+        <v>0.4399918440330524</v>
       </c>
       <c r="N6">
-        <v>1.657965695110008</v>
+        <v>1.013919847350728</v>
       </c>
       <c r="O6">
-        <v>5.048355644475009</v>
+        <v>2.114066477213072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1684253792326587</v>
+        <v>0.09294792698061372</v>
       </c>
       <c r="D7">
-        <v>0.1225010363860264</v>
+        <v>0.06875351159502685</v>
       </c>
       <c r="E7">
-        <v>0.1362809775682869</v>
+        <v>0.05318931200762833</v>
       </c>
       <c r="F7">
-        <v>1.914219094345135</v>
+        <v>0.8252045256051019</v>
       </c>
       <c r="G7">
-        <v>0.002510279141196926</v>
+        <v>0.0008234457655661997</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.350130814616918</v>
+        <v>0.5814550654443309</v>
       </c>
       <c r="J7">
-        <v>0.1816766903989073</v>
+        <v>0.06306301140766024</v>
       </c>
       <c r="K7">
-        <v>1.134055542093392</v>
+        <v>2.045953428141189</v>
       </c>
       <c r="L7">
-        <v>0.1953193140791143</v>
+        <v>0.06760161455527225</v>
       </c>
       <c r="M7">
-        <v>0.4172186059519447</v>
+        <v>0.4600052371815835</v>
       </c>
       <c r="N7">
-        <v>1.654770036765981</v>
+        <v>1.008209737283345</v>
       </c>
       <c r="O7">
-        <v>5.038881130377547</v>
+        <v>2.124692657156032</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1704459760801171</v>
+        <v>0.1041884001207904</v>
       </c>
       <c r="D8">
-        <v>0.1243774273938598</v>
+        <v>0.07779517950002202</v>
       </c>
       <c r="E8">
-        <v>0.1360222842269447</v>
+        <v>0.05549960121484432</v>
       </c>
       <c r="F8">
-        <v>1.904118763811724</v>
+        <v>0.8570622627736384</v>
       </c>
       <c r="G8">
-        <v>0.002506575072666332</v>
+        <v>0.0008180748164532405</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.342580610214078</v>
+        <v>0.6029557987177867</v>
       </c>
       <c r="J8">
-        <v>0.1802365737129534</v>
+        <v>0.06226069162558545</v>
       </c>
       <c r="K8">
-        <v>1.25844832641485</v>
+        <v>2.471989932706634</v>
       </c>
       <c r="L8">
-        <v>0.1940830702650906</v>
+        <v>0.067438844444343</v>
       </c>
       <c r="M8">
-        <v>0.4411093714341305</v>
+        <v>0.5486819418264659</v>
       </c>
       <c r="N8">
-        <v>1.641867495176115</v>
+        <v>0.9852705350520452</v>
       </c>
       <c r="O8">
-        <v>5.002574684002269</v>
+        <v>2.180858569944803</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1748773874356857</v>
+        <v>0.1269165908856564</v>
       </c>
       <c r="D9">
-        <v>0.1283466849387764</v>
+        <v>0.09590858139124947</v>
       </c>
       <c r="E9">
-        <v>0.135848691187439</v>
+        <v>0.06049230478936352</v>
       </c>
       <c r="F9">
-        <v>1.891533780485389</v>
+        <v>0.9325523360847967</v>
       </c>
       <c r="G9">
-        <v>0.002500052813822208</v>
+        <v>0.0008082177865198198</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.332930253367493</v>
+        <v>0.6544912830444645</v>
       </c>
       <c r="J9">
-        <v>0.1778495940433693</v>
+        <v>0.06131369546935872</v>
       </c>
       <c r="K9">
-        <v>1.503777573720299</v>
+        <v>3.311423708427128</v>
       </c>
       <c r="L9">
-        <v>0.1920833564991717</v>
+        <v>0.06769352457555655</v>
       </c>
       <c r="M9">
-        <v>0.4889124489919396</v>
+        <v>0.7242951183175492</v>
       </c>
       <c r="N9">
-        <v>1.620861685957927</v>
+        <v>0.9488803509570829</v>
       </c>
       <c r="O9">
-        <v>4.951149087454951</v>
+        <v>2.32774182958056</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1784160585480805</v>
+        <v>0.1441109454895297</v>
       </c>
       <c r="D10">
-        <v>0.1314368428752601</v>
+        <v>0.1094968661364533</v>
       </c>
       <c r="E10">
-        <v>0.1359231915007122</v>
+        <v>0.06447488069206742</v>
       </c>
       <c r="F10">
-        <v>1.88668589378004</v>
+        <v>0.9971665826948737</v>
       </c>
       <c r="G10">
-        <v>0.002495708429966687</v>
+        <v>0.0008013621869049383</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.328980828394378</v>
+        <v>0.6989478265378395</v>
       </c>
       <c r="J10">
-        <v>0.176361214934186</v>
+        <v>0.06103348128283059</v>
       </c>
       <c r="K10">
-        <v>1.684801206155953</v>
+        <v>3.93245285370125</v>
       </c>
       <c r="L10">
-        <v>0.1908715533690852</v>
+        <v>0.06825898284297338</v>
       </c>
       <c r="M10">
-        <v>0.5245984667571335</v>
+        <v>0.8548075259076882</v>
       </c>
       <c r="N10">
-        <v>1.608035705056878</v>
+        <v>0.9278646428112296</v>
       </c>
       <c r="O10">
-        <v>4.925420142275868</v>
+        <v>2.461499265017579</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1800867157179198</v>
+        <v>0.1520593634758853</v>
       </c>
       <c r="D11">
-        <v>0.1328798719842155</v>
+        <v>0.1157506717398746</v>
       </c>
       <c r="E11">
-        <v>0.1360006675226799</v>
+        <v>0.06636268216836783</v>
       </c>
       <c r="F11">
-        <v>1.885434768472052</v>
+        <v>1.028837359196217</v>
       </c>
       <c r="G11">
-        <v>0.002493828283045103</v>
+        <v>0.0007983213444799259</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.327865731415322</v>
+        <v>0.7208129486615107</v>
       </c>
       <c r="J11">
-        <v>0.1757414927627643</v>
+        <v>0.06100422392818672</v>
       </c>
       <c r="K11">
-        <v>1.767309174221282</v>
+        <v>4.216361614487653</v>
       </c>
       <c r="L11">
-        <v>0.1903758619921661</v>
+        <v>0.06860512721476653</v>
       </c>
       <c r="M11">
-        <v>0.5409524932380876</v>
+        <v>0.9146109891621919</v>
       </c>
       <c r="N11">
-        <v>1.602764510772218</v>
+        <v>0.9196607433982393</v>
       </c>
       <c r="O11">
-        <v>4.916333125652102</v>
+        <v>2.528778977744224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1807280461847824</v>
+        <v>0.1550890536597223</v>
       </c>
       <c r="D12">
-        <v>0.133431620589036</v>
+        <v>0.1181302195376333</v>
       </c>
       <c r="E12">
-        <v>0.1360362475395149</v>
+        <v>0.06708917084551658</v>
       </c>
       <c r="F12">
-        <v>1.885098121193067</v>
+        <v>1.041183534507013</v>
       </c>
       <c r="G12">
-        <v>0.002493130072638895</v>
+        <v>0.0007971805274754481</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.327541423106922</v>
+        <v>0.7293474275846634</v>
       </c>
       <c r="J12">
-        <v>0.1755150485422341</v>
+        <v>0.06100798315937439</v>
       </c>
       <c r="K12">
-        <v>1.798574155217466</v>
+        <v>4.3241114112584</v>
       </c>
       <c r="L12">
-        <v>0.1901961224050979</v>
+        <v>0.0687495900269397</v>
       </c>
       <c r="M12">
-        <v>0.5471622840003576</v>
+        <v>0.9373285677614547</v>
       </c>
       <c r="N12">
-        <v>1.600849278343787</v>
+        <v>0.916759493963113</v>
       </c>
       <c r="O12">
-        <v>4.91326844432416</v>
+        <v>2.555254336691064</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1805895388405219</v>
+        <v>0.1544356487125356</v>
       </c>
       <c r="D13">
-        <v>0.133312556660897</v>
+        <v>0.1176172198761094</v>
       </c>
       <c r="E13">
-        <v>0.1360283075659154</v>
+        <v>0.06693218050112648</v>
       </c>
       <c r="F13">
-        <v>1.885164526835382</v>
+        <v>1.038508431067598</v>
       </c>
       <c r="G13">
-        <v>0.002493279833610582</v>
+        <v>0.0007974257560620012</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.327606912880647</v>
+        <v>0.7274977403411427</v>
       </c>
       <c r="J13">
-        <v>0.1755634515228621</v>
+        <v>0.06100650168710686</v>
       </c>
       <c r="K13">
-        <v>1.791839778496353</v>
+        <v>4.300894257880145</v>
       </c>
       <c r="L13">
-        <v>0.1902344785128527</v>
+        <v>0.0687178720737549</v>
       </c>
       <c r="M13">
-        <v>0.5458241505711072</v>
+        <v>0.9324326072527924</v>
       </c>
       <c r="N13">
-        <v>1.601258164429865</v>
+        <v>0.9173750226388648</v>
       </c>
       <c r="O13">
-        <v>4.91391173854376</v>
+        <v>2.549506791172007</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1801393046143858</v>
+        <v>0.1523082116569583</v>
       </c>
       <c r="D14">
-        <v>0.1329251586946327</v>
+        <v>0.115946205050534</v>
       </c>
       <c r="E14">
-        <v>0.1360034697711114</v>
+        <v>0.06642221393220638</v>
       </c>
       <c r="F14">
-        <v>1.885404324568896</v>
+        <v>1.029845855698071</v>
       </c>
       <c r="G14">
-        <v>0.002493770565439202</v>
+        <v>0.0007982272776633292</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.327837087483232</v>
+        <v>0.7215098711598529</v>
       </c>
       <c r="J14">
-        <v>0.1757226981856235</v>
+        <v>0.06100423154788004</v>
       </c>
       <c r="K14">
-        <v>1.76988095304506</v>
+        <v>4.22522121964289</v>
       </c>
       <c r="L14">
-        <v>0.190360915143696</v>
+        <v>0.06861674041447685</v>
       </c>
       <c r="M14">
-        <v>0.5414630406463559</v>
+        <v>0.9164784944332425</v>
       </c>
       <c r="N14">
-        <v>1.602605323918667</v>
+        <v>0.9194178776855324</v>
       </c>
       <c r="O14">
-        <v>4.916073449232016</v>
+        <v>2.530936683838036</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1798646526747945</v>
+        <v>0.1510077222046959</v>
       </c>
       <c r="D15">
-        <v>0.1326885553476416</v>
+        <v>0.1149241700196484</v>
       </c>
       <c r="E15">
-        <v>0.1359890679655749</v>
+        <v>0.06611137866612182</v>
       </c>
       <c r="F15">
-        <v>1.885569062987727</v>
+        <v>1.0245865592141</v>
       </c>
       <c r="G15">
-        <v>0.002494072942812494</v>
+        <v>0.0007987196086923169</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.327990831290663</v>
+        <v>0.7178758623121695</v>
       </c>
       <c r="J15">
-        <v>0.1758213128382806</v>
+        <v>0.0610047954776114</v>
       </c>
       <c r="K15">
-        <v>1.756433216896596</v>
+        <v>4.178901710193031</v>
       </c>
       <c r="L15">
-        <v>0.1904393982451609</v>
+        <v>0.0685565560170005</v>
       </c>
       <c r="M15">
-        <v>0.5387939201798204</v>
+        <v>0.9067157072235901</v>
       </c>
       <c r="N15">
-        <v>1.603441022894074</v>
+        <v>0.9206962526980362</v>
       </c>
       <c r="O15">
-        <v>4.917446575231111</v>
+        <v>2.519694178485707</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1783080967632173</v>
+        <v>0.1435941789419672</v>
       </c>
       <c r="D16">
-        <v>0.1313432830688441</v>
+        <v>0.1090897025218283</v>
       </c>
       <c r="E16">
-        <v>0.1359190030863218</v>
+        <v>0.06435309658105837</v>
       </c>
       <c r="F16">
-        <v>1.886786851364448</v>
+        <v>0.9951448027957497</v>
       </c>
       <c r="G16">
-        <v>0.002495833230997356</v>
+        <v>0.0008015624363345485</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.329067412477393</v>
+        <v>0.6975534809869188</v>
       </c>
       <c r="J16">
-        <v>0.1764028679075551</v>
+        <v>0.06103742968346282</v>
       </c>
       <c r="K16">
-        <v>1.679412160008042</v>
+        <v>3.913930128802065</v>
       </c>
       <c r="L16">
-        <v>0.1909050641675023</v>
+        <v>0.06823820103802092</v>
       </c>
       <c r="M16">
-        <v>0.5235320770454877</v>
+        <v>0.8509086966870996</v>
       </c>
       <c r="N16">
-        <v>1.608391513161592</v>
+        <v>0.9284289480701773</v>
       </c>
       <c r="O16">
-        <v>4.926066667092186</v>
+        <v>2.457237943039814</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.177368748990844</v>
+        <v>0.1390797371080481</v>
       </c>
       <c r="D17">
-        <v>0.1305275136927264</v>
+        <v>0.1055296524353366</v>
       </c>
       <c r="E17">
-        <v>0.1358871653028686</v>
+        <v>0.06329440663806452</v>
       </c>
       <c r="F17">
-        <v>1.887778257724705</v>
+        <v>0.9776842389981795</v>
       </c>
       <c r="G17">
-        <v>0.00249693768784138</v>
+        <v>0.0008033259977047479</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.329902379719329</v>
+        <v>0.6855196265849628</v>
       </c>
       <c r="J17">
-        <v>0.1767743104144444</v>
+        <v>0.0610830985202</v>
       </c>
       <c r="K17">
-        <v>1.632201698308791</v>
+        <v>3.751763508577369</v>
       </c>
       <c r="L17">
-        <v>0.1912049506592872</v>
+        <v>0.06806608797444724</v>
       </c>
       <c r="M17">
-        <v>0.5141999375905186</v>
+        <v>0.8167899756214609</v>
       </c>
       <c r="N17">
-        <v>1.611572663339707</v>
+        <v>0.9335272292566756</v>
       </c>
       <c r="O17">
-        <v>4.932025160670236</v>
+        <v>2.420620982983337</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1768341970702778</v>
+        <v>0.1364949661607682</v>
       </c>
       <c r="D18">
-        <v>0.1300618191676719</v>
+        <v>0.1034887619737503</v>
       </c>
       <c r="E18">
-        <v>0.1358729570713813</v>
+        <v>0.06269259677388916</v>
       </c>
       <c r="F18">
-        <v>1.888438307665567</v>
+        <v>0.9678541096357662</v>
       </c>
       <c r="G18">
-        <v>0.002497581994798659</v>
+        <v>0.0008043477069106943</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.330446781095908</v>
+        <v>0.6787514029012058</v>
       </c>
       <c r="J18">
-        <v>0.1769933531988706</v>
+        <v>0.06111856474613475</v>
       </c>
       <c r="K18">
-        <v>1.605062608213302</v>
+        <v>3.658618805055937</v>
       </c>
       <c r="L18">
-        <v>0.1913826686892435</v>
+        <v>0.06797542396240175</v>
       </c>
       <c r="M18">
-        <v>0.508843683982775</v>
+        <v>0.7972059347444898</v>
       </c>
       <c r="N18">
-        <v>1.613455416872888</v>
+        <v>0.9365866216276046</v>
       </c>
       <c r="O18">
-        <v>4.935698671290169</v>
+        <v>2.40016069902336</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1766541942294566</v>
+        <v>0.1356217899945307</v>
       </c>
       <c r="D19">
-        <v>0.1299047484120663</v>
+        <v>0.102798883987937</v>
       </c>
       <c r="E19">
-        <v>0.1358688520712477</v>
+        <v>0.06249003742718529</v>
       </c>
       <c r="F19">
-        <v>1.888677218412951</v>
+        <v>0.9645615796918321</v>
       </c>
       <c r="G19">
-        <v>0.00249780170268739</v>
+        <v>0.0008046949181746685</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.33064212534498</v>
+        <v>0.6764855884346588</v>
       </c>
       <c r="J19">
-        <v>0.1770684450622646</v>
+        <v>0.0611321318707212</v>
       </c>
       <c r="K19">
-        <v>1.595876433832018</v>
+        <v>3.627102684378542</v>
       </c>
       <c r="L19">
-        <v>0.1914437401070153</v>
+        <v>0.06794613989228182</v>
       </c>
       <c r="M19">
-        <v>0.5070321100740003</v>
+        <v>0.7905817445379384</v>
       </c>
       <c r="N19">
-        <v>1.614101999616224</v>
+        <v>0.9376439865556208</v>
       </c>
       <c r="O19">
-        <v>4.936984767781951</v>
+        <v>2.393334249486742</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1774681509975125</v>
+        <v>0.1395590730130323</v>
       </c>
       <c r="D20">
-        <v>0.1306139904316126</v>
+        <v>0.1059079199205826</v>
       </c>
       <c r="E20">
-        <v>0.1358901299273718</v>
+        <v>0.06340636429023405</v>
       </c>
       <c r="F20">
-        <v>1.887663425497209</v>
+        <v>0.9795207494401836</v>
       </c>
       <c r="G20">
-        <v>0.00249681918017599</v>
+        <v>0.0008031375059497914</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.32980685705099</v>
+        <v>0.6867846513306048</v>
       </c>
       <c r="J20">
-        <v>0.176734211075221</v>
+        <v>0.06107727993332546</v>
       </c>
       <c r="K20">
-        <v>1.637225781723544</v>
+        <v>3.76901277655918</v>
       </c>
       <c r="L20">
-        <v>0.1911724859754145</v>
+        <v>0.06808354327327848</v>
       </c>
       <c r="M20">
-        <v>0.5151921885244519</v>
+        <v>0.8204177532954446</v>
       </c>
       <c r="N20">
-        <v>1.611228536219187</v>
+        <v>0.9329712920919988</v>
       </c>
       <c r="O20">
-        <v>4.931365373138021</v>
+        <v>2.42445622566305</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1802713140506</v>
+        <v>0.1529325409962041</v>
       </c>
       <c r="D21">
-        <v>0.1330388033675263</v>
+        <v>0.1164367061727347</v>
       </c>
       <c r="E21">
-        <v>0.1360105960471536</v>
+        <v>0.06657168252485945</v>
       </c>
       <c r="F21">
-        <v>1.885330169270304</v>
+        <v>1.032380466608302</v>
       </c>
       <c r="G21">
-        <v>0.002493626052641529</v>
+        <v>0.0007979915655957025</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.327766821530098</v>
+        <v>0.723261588372516</v>
       </c>
       <c r="J21">
-        <v>0.1756757003139988</v>
+        <v>0.06100448968997085</v>
       </c>
       <c r="K21">
-        <v>1.776330237593129</v>
+        <v>4.247441397758678</v>
       </c>
       <c r="L21">
-        <v>0.1903235615667782</v>
+        <v>0.06864607697778879</v>
       </c>
       <c r="M21">
-        <v>0.542743549682406</v>
+        <v>0.921162593019659</v>
       </c>
       <c r="N21">
-        <v>1.602207437426813</v>
+        <v>0.9188121813447196</v>
       </c>
       <c r="O21">
-        <v>4.915428287515283</v>
+        <v>2.536363482085306</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1821539568700246</v>
+        <v>0.161789084792801</v>
       </c>
       <c r="D22">
-        <v>0.1346544519412447</v>
+        <v>0.1233846263869509</v>
       </c>
       <c r="E22">
-        <v>0.1361256960153163</v>
+        <v>0.06870847362150201</v>
       </c>
       <c r="F22">
-        <v>1.884604490897971</v>
+        <v>1.068998939922352</v>
       </c>
       <c r="G22">
-        <v>0.002491619336821728</v>
+        <v>0.0007946904131201152</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.327004473931439</v>
+        <v>0.748595140685886</v>
       </c>
       <c r="J22">
-        <v>0.1750318724377671</v>
+        <v>0.0610437741784402</v>
       </c>
       <c r="K22">
-        <v>1.867364581801041</v>
+        <v>4.561539485046751</v>
       </c>
       <c r="L22">
-        <v>0.1898151737316596</v>
+        <v>0.06909205374373784</v>
       </c>
       <c r="M22">
-        <v>0.5608481280852828</v>
+        <v>0.9874255216415762</v>
       </c>
       <c r="N22">
-        <v>1.596782837666922</v>
+        <v>0.9107608737541568</v>
       </c>
       <c r="O22">
-        <v>4.907206291412109</v>
+        <v>2.61535606361744</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1811445463101222</v>
+        <v>0.1570509931913051</v>
       </c>
       <c r="D23">
-        <v>0.1337893426254766</v>
+        <v>0.119669950158297</v>
       </c>
       <c r="E23">
-        <v>0.1360609458571851</v>
+        <v>0.06756156415926284</v>
       </c>
       <c r="F23">
-        <v>1.884918697173561</v>
+        <v>1.049256469154258</v>
       </c>
       <c r="G23">
-        <v>0.002492683043444125</v>
+        <v>0.0007964468008362633</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.327359128073439</v>
+        <v>0.7349309856740902</v>
       </c>
       <c r="J23">
-        <v>0.1753711113454415</v>
+        <v>0.0610146105672662</v>
       </c>
       <c r="K23">
-        <v>1.818767350863197</v>
+        <v>4.393756213838628</v>
       </c>
       <c r="L23">
-        <v>0.1900822684853054</v>
+        <v>0.06884665169092585</v>
       </c>
       <c r="M23">
-        <v>0.5511765297183473</v>
+        <v>0.9520180997865992</v>
       </c>
       <c r="N23">
-        <v>1.599634985382096</v>
+        <v>0.9149443700677153</v>
       </c>
       <c r="O23">
-        <v>4.911393783879475</v>
+        <v>2.572635049395757</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1774231942401912</v>
+        <v>0.1393423322224265</v>
       </c>
       <c r="D24">
-        <v>0.1305748840079843</v>
+        <v>0.1057368871033333</v>
       </c>
       <c r="E24">
-        <v>0.1358887768611545</v>
+        <v>0.06335572696529113</v>
       </c>
       <c r="F24">
-        <v>1.887715060554385</v>
+        <v>0.9786898165490783</v>
       </c>
       <c r="G24">
-        <v>0.002496872728650524</v>
+        <v>0.0008032226987454888</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.329849842343663</v>
+        <v>0.6862122671938593</v>
       </c>
       <c r="J24">
-        <v>0.1767523228671202</v>
+        <v>0.0610798818809215</v>
       </c>
       <c r="K24">
-        <v>1.634954384639059</v>
+        <v>3.76121411424424</v>
       </c>
       <c r="L24">
-        <v>0.1911871467194892</v>
+        <v>0.0680756259682731</v>
       </c>
       <c r="M24">
-        <v>0.51474356406748</v>
+        <v>0.8187775382993294</v>
       </c>
       <c r="N24">
-        <v>1.611383948280583</v>
+        <v>0.9332222323633204</v>
       </c>
       <c r="O24">
-        <v>4.931662890903453</v>
+        <v>2.422720476154723</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1736286731594845</v>
+        <v>0.1206868544804678</v>
       </c>
       <c r="D25">
-        <v>0.1272421589495636</v>
+        <v>0.09096278002124336</v>
       </c>
       <c r="E25">
-        <v>0.1358600720176124</v>
+        <v>0.05908891103947944</v>
       </c>
       <c r="F25">
-        <v>1.894165657787283</v>
+        <v>0.9106157619297903</v>
       </c>
       <c r="G25">
-        <v>0.002501738348091969</v>
+        <v>0.0008108146077297799</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.334989228278971</v>
+        <v>0.6394586996524012</v>
       </c>
       <c r="J25">
-        <v>0.1784486590085699</v>
+        <v>0.06149947429422298</v>
       </c>
       <c r="K25">
-        <v>1.437267425543098</v>
+        <v>3.083723650818399</v>
       </c>
       <c r="L25">
-        <v>0.1925790291399174</v>
+        <v>0.06756035277141592</v>
       </c>
       <c r="M25">
-        <v>0.475880053976816</v>
+        <v>0.6765593832608729</v>
       </c>
       <c r="N25">
-        <v>1.62608565517457</v>
+        <v>0.957757107852558</v>
       </c>
       <c r="O25">
-        <v>4.962944394620791</v>
+        <v>2.283730242077638</v>
       </c>
     </row>
   </sheetData>
